--- a/Testing/storage.xlsx
+++ b/Testing/storage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91808\Documents\GitHub\QUEST-ALGORITHM\Quest_With_SQR_MATLAB\Divided Program\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91808\Documents\GitHub\QUEST\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D38C71-A25C-4096-9ECE-79F58334E32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8947CCBC-33A9-4AA0-A909-347B950484DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,12 +75,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,42 +152,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -481,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:B125"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="99" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2734,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="8">
-        <v>0.78964769616561803</v>
+        <v>-0.78964769616561803</v>
       </c>
       <c r="D97" s="8">
         <v>0.59903385418034905</v>
@@ -2751,7 +2742,9 @@
       <c r="H97" s="8">
         <v>-0.107314149611708</v>
       </c>
-      <c r="I97" s="9"/>
+      <c r="I97" s="9">
+        <v>-6.4996872653581464E-2</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
@@ -2778,7 +2771,9 @@
       <c r="H98" s="8">
         <v>-0.30121118243398698</v>
       </c>
-      <c r="I98" s="9"/>
+      <c r="I98" s="9">
+        <v>2.3858602032224313E-2</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
@@ -2805,7 +2800,9 @@
       <c r="H99" s="8">
         <v>0.59930384912213297</v>
       </c>
-      <c r="I99" s="9"/>
+      <c r="I99" s="9">
+        <v>-0.11941628980163718</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B100" s="5">
@@ -2829,7 +2826,9 @@
       <c r="H100" s="8">
         <v>0.15037646620998299</v>
       </c>
-      <c r="I100" s="9"/>
+      <c r="I100" s="9">
+        <v>0.99042714188593084</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="7">
@@ -2853,7 +2852,7 @@
       <c r="H101" s="8">
         <v>-0.497227061815391</v>
       </c>
-      <c r="I101" s="12"/>
+      <c r="I101" s="10"/>
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C102" s="11"/>
@@ -3160,22 +3159,22 @@
       <c r="B115" s="2">
         <v>1</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="12">
         <v>-0.122211934700673</v>
       </c>
-      <c r="D115" s="13">
+      <c r="D115" s="12">
         <v>-0.98494785956892705</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="12">
         <v>0.122237297693085</v>
       </c>
-      <c r="F115" s="13">
+      <c r="F115" s="12">
         <v>0.37114891190344701</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="12">
         <v>-0.90592166925288897</v>
       </c>
-      <c r="H115" s="13">
+      <c r="H115" s="12">
         <v>0.203848998945166</v>
       </c>
       <c r="I115" s="9">
@@ -3189,22 +3188,22 @@
       <c r="B116" s="5">
         <v>1</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="12">
         <v>0.54416040785388797</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="12">
         <v>-0.4617874232543</v>
       </c>
-      <c r="E116" s="13">
+      <c r="E116" s="12">
         <v>0.70045829729430997</v>
       </c>
-      <c r="F116" s="13">
+      <c r="F116" s="12">
         <v>0.26901890279646301</v>
       </c>
-      <c r="G116" s="13">
+      <c r="G116" s="12">
         <v>-0.20100975844593</v>
       </c>
-      <c r="H116" s="13">
+      <c r="H116" s="12">
         <v>0.94192563769529902</v>
       </c>
       <c r="I116" s="9">
@@ -3218,22 +3217,22 @@
       <c r="B117" s="5">
         <v>1</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="12">
         <v>-8.4970838517027802E-3</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="12">
         <v>0.72285129846312302</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="12">
         <v>0.69095137301853204</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F117" s="12">
         <v>-0.72906232938137105</v>
       </c>
-      <c r="G117" s="13">
+      <c r="G117" s="12">
         <v>0.49839841098473903</v>
       </c>
-      <c r="H117" s="13">
+      <c r="H117" s="12">
         <v>0.46911314605849103</v>
       </c>
       <c r="I117" s="9">
@@ -3244,22 +3243,22 @@
       <c r="B118" s="5">
         <v>1</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="12">
         <v>-0.71798039488542498</v>
       </c>
-      <c r="D118" s="13">
+      <c r="D118" s="12">
         <v>0.68085573411851696</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E118" s="12">
         <v>-0.14470529319310799</v>
       </c>
-      <c r="F118" s="13">
+      <c r="F118" s="12">
         <v>-0.78076034129501004</v>
       </c>
-      <c r="G118" s="13">
+      <c r="G118" s="12">
         <v>0.21067974098897399</v>
       </c>
-      <c r="H118" s="13">
+      <c r="H118" s="12">
         <v>-0.58824088280033604</v>
       </c>
       <c r="I118" s="9">
@@ -3270,22 +3269,22 @@
       <c r="B119" s="7">
         <v>1</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="12">
         <v>-0.933629961259693</v>
       </c>
-      <c r="D119" s="13">
+      <c r="D119" s="12">
         <v>-0.231941838490729</v>
       </c>
-      <c r="E119" s="13">
+      <c r="E119" s="12">
         <v>0.27301662769099699</v>
       </c>
-      <c r="F119" s="13">
+      <c r="F119" s="12">
         <v>-0.65915971426818598</v>
       </c>
-      <c r="G119" s="13">
+      <c r="G119" s="12">
         <v>-0.727692972861812</v>
       </c>
-      <c r="H119" s="13">
+      <c r="H119" s="12">
         <v>-0.18966129898695999</v>
       </c>
       <c r="I119" s="10"/>
